--- a/testData/Opencart_logindata.xlsx
+++ b/testData/Opencart_logindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22635" windowHeight="11295"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="11265" windowHeight="6465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>password</t>
   </si>
@@ -56,6 +56,21 @@
   </si>
   <si>
     <t>opiuyehgq123@@!</t>
+  </si>
+  <si>
+    <t>manojkerkar123@gmail.com</t>
+  </si>
+  <si>
+    <t>qweq12132sads</t>
+  </si>
+  <si>
+    <t>qwewqesasd123123@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -155,12 +170,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -465,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -533,15 +550,51 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3"/>
     <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId8"/>
 </worksheet>
 </file>
 
